--- a/Assets/Excels/excel_files/ItemEntity.xlsx
+++ b/Assets/Excels/excel_files/ItemEntity.xlsx
@@ -8,15 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\Team12SoloProject\Assets\Excels\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FEDD41-79CB-41F7-B504-61FEB58E0645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F86505D-340B-40AC-9F64-ECFD77A94528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43995" yWindow="4905" windowWidth="29640" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45435" yWindow="3630" windowWidth="29640" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="EquipableList" sheetId="4" r:id="rId2"/>
-    <sheet name="StatBoostEffectList" sheetId="6" r:id="rId3"/>
-    <sheet name="ConsumableList" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>displayTitle</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,26 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>equipedPrefabPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>consumeType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나무 검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,30 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HpRecovery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MpRecovery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Equipment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,10 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>statType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>은반지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,46 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Prefabs/Equips/Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Prefabs/Equips/Armor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accessory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Multiply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>calcType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -314,19 +223,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Prefabs/Equips/Accessory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스파르타의 반지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>과거 버틴자만이 사용 가능했던 반지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipmentType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -800,12 +701,12 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.4140625" customWidth="1"/>
     <col min="2" max="2" width="27.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
@@ -816,7 +717,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -828,41 +729,41 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="G1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -871,16 +772,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -888,22 +789,22 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -911,22 +812,22 @@
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -934,22 +835,22 @@
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -957,22 +858,22 @@
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -980,22 +881,22 @@
         <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -1003,22 +904,22 @@
         <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -1026,22 +927,22 @@
         <v>1201</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -1049,22 +950,22 @@
         <v>1202</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -1072,22 +973,22 @@
         <v>1203</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -1095,22 +996,22 @@
         <v>1204</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -1118,22 +1019,22 @@
         <v>1501</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -1141,22 +1042,22 @@
         <v>1502</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -1164,22 +1065,22 @@
         <v>1503</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="G16" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -1187,22 +1088,22 @@
         <v>1504</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
         <v>26</v>
       </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="G17" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
@@ -1210,22 +1111,22 @@
         <v>1601</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="G18" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -1233,22 +1134,22 @@
         <v>1602</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -1256,22 +1157,22 @@
         <v>1603</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="G20" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -1279,22 +1180,22 @@
         <v>1604</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
         <v>26</v>
       </c>
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="G21" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -1302,22 +1203,22 @@
         <v>1701</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="G22" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -1325,22 +1226,22 @@
         <v>1702</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="G23" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -1348,22 +1249,22 @@
         <v>1703</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="G24" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -1371,727 +1272,22 @@
         <v>1704</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
         <v>26</v>
       </c>
-      <c r="E25" t="s">
-        <v>37</v>
-      </c>
       <c r="F25" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="G25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC760A4F-E344-444D-9B20-4657346E05AF}">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1501</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>1502</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>1503</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>1504</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>1601</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>1602</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>1603</v>
-      </c>
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>1604</v>
-      </c>
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>1701</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>1702</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>1703</v>
-      </c>
-      <c r="B12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>1704</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26320459-E182-4282-B0CD-FC10DCCE71E9}">
-  <dimension ref="A1:D27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="11.9140625" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1501</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>1502</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>1503</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>1503</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>1504</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>1504</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>1.5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>1601</v>
-      </c>
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>1602</v>
-      </c>
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>1603</v>
-      </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>1603</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11">
-        <v>1.2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>1604</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>1604</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13">
-        <v>1.5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>1604</v>
-      </c>
-      <c r="B14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14">
-        <v>1.5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>1701</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15">
-        <v>1.2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>1701</v>
-      </c>
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16">
-        <v>1.2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>1702</v>
-      </c>
-      <c r="B17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17">
-        <v>1.5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>1702</v>
-      </c>
-      <c r="B18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18">
-        <v>1.5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>1703</v>
-      </c>
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>1703</v>
-      </c>
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>1703</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21">
-        <v>1.2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>1704</v>
-      </c>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22">
-        <v>2.5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>1704</v>
-      </c>
-      <c r="B23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23">
-        <v>2.5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>1704</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24">
-        <v>1.5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>1704</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25">
-        <v>1.5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <v>1704</v>
-      </c>
-      <c r="B26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26">
-        <v>1.5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <v>1704</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27">
-        <v>1.5</v>
-      </c>
-      <c r="D27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB02C30-3E17-449D-8FEC-0460FEAF3D44}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.58203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>1.5</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>1002</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3">
-        <v>1.5</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>1003</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4">
-        <v>1.2</v>
-      </c>
-      <c r="D4">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>1004</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5">
-        <v>1.2</v>
-      </c>
-      <c r="D5">
-        <v>60</v>
-      </c>
-      <c r="E5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>1005</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6">
-        <v>1.2</v>
-      </c>
-      <c r="D6">
-        <v>60</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>1006</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>1.2</v>
-      </c>
-      <c r="D7">
-        <v>60</v>
-      </c>
-      <c r="E7" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excels/excel_files/ItemEntity.xlsx
+++ b/Assets/Excels/excel_files/ItemEntity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\Team12SoloProject\Assets\Excels\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F86505D-340B-40AC-9F64-ECFD77A94528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A64DA5C-0017-44CB-92A7-B63B2A98D9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45435" yWindow="3630" windowWidth="29640" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39240" yWindow="1620" windowWidth="29640" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -701,7 +701,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
